--- a/Practice Subnetting.xlsx
+++ b/Practice Subnetting.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="173">
   <si>
     <t>Inc: 32</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Inc:</t>
   </si>
   <si>
-    <t>/28</t>
-  </si>
-  <si>
     <t>Net ID:</t>
   </si>
   <si>
@@ -441,109 +438,16 @@
     <t>IP:</t>
   </si>
   <si>
-    <t>/25</t>
-  </si>
-  <si>
-    <t>/21</t>
-  </si>
-  <si>
-    <t>/18</t>
-  </si>
-  <si>
     <t>Host Range:</t>
   </si>
   <si>
     <t>Default Gateway:</t>
   </si>
   <si>
-    <t>/27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subnet Mask: </t>
   </si>
   <si>
     <t>Subnet Mask</t>
-  </si>
-  <si>
-    <t>/32</t>
-  </si>
-  <si>
-    <t>/31</t>
-  </si>
-  <si>
-    <t>/30</t>
-  </si>
-  <si>
-    <t>/29</t>
-  </si>
-  <si>
-    <t>/26</t>
-  </si>
-  <si>
-    <t>/24</t>
-  </si>
-  <si>
-    <t>/23</t>
-  </si>
-  <si>
-    <t>/22</t>
-  </si>
-  <si>
-    <t>/20</t>
-  </si>
-  <si>
-    <t>/19</t>
-  </si>
-  <si>
-    <t>/17</t>
-  </si>
-  <si>
-    <t>/16</t>
-  </si>
-  <si>
-    <t>/15</t>
-  </si>
-  <si>
-    <t>/14</t>
-  </si>
-  <si>
-    <t>/13</t>
-  </si>
-  <si>
-    <t>/12</t>
-  </si>
-  <si>
-    <t>/11</t>
-  </si>
-  <si>
-    <t>/10</t>
-  </si>
-  <si>
-    <t>/9</t>
-  </si>
-  <si>
-    <t>/8</t>
-  </si>
-  <si>
-    <t>/7</t>
-  </si>
-  <si>
-    <t>/6</t>
-  </si>
-  <si>
-    <t>/5</t>
-  </si>
-  <si>
-    <t>/4</t>
-  </si>
-  <si>
-    <t>/3</t>
-  </si>
-  <si>
-    <t>/2</t>
-  </si>
-  <si>
-    <t>/1</t>
   </si>
   <si>
     <t>255.255.255.255</t>
@@ -736,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -959,22 +863,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1011,7 +904,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1019,10 +911,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD193"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
@@ -21867,7 +21758,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21882,7 +21773,7 @@
     <col min="12" max="16" width="9.88671875" style="33" customWidth="1"/>
     <col min="17" max="17" width="6" style="33" customWidth="1"/>
     <col min="18" max="18" width="7" style="33" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" style="33" customWidth="1"/>
     <col min="20" max="21" width="8.21875" style="33"/>
     <col min="22" max="22" width="24.5546875" style="33" customWidth="1"/>
     <col min="23" max="16384" width="8.21875" style="33"/>
@@ -21905,11 +21796,11 @@
         <v>131</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I1" s="34">
         <f>QUOTIENT(I2,H2)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>127</v>
@@ -21927,22 +21818,22 @@
         <v>131</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S1" s="34">
         <f>QUOTIENT(S2,R2)</f>
-        <v>1</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" s="47" t="s">
-        <v>145</v>
+        <v>20</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="22.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="28">
         <v>192</v>
@@ -21951,253 +21842,295 @@
         <v>168</v>
       </c>
       <c r="D2" s="30">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E2" s="31">
-        <v>200</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>133</v>
+        <v>30</v>
+      </c>
+      <c r="F2" s="32">
+        <v>29</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="H2" s="35">
-        <f>IF(OR(F2="/15",F2="/23",F2="/31"),2,(IF(OR(F2="/14",F2="/22",F2="/30"),4,(IF(OR(F2="/13",F2="/21",F2="/29"),8,(IF(OR(F2="/12",F2="/20",F2="/28"),16,(IF(OR(F2="/11",F2="/19",F2="/27"),32,(IF(OR(F2="/10",F2="/18",F2="/26"),64,(IF(OR(F2="/9",F2="/17",F2="/25"),128,"Something is wrong")))))))))))))</f>
-        <v>16</v>
-      </c>
-      <c r="I2" s="36">
+        <f>IF(OR(F2=15,F2=23,F2=31),2,(IF(OR(F2=14,F2=22,F2=30),4,(IF(OR(F2=13,F2=21,F2=29),8,(IF(OR(F2=12,F2=20,F2=28),16,(IF(OR(F2=11,F2=19,F2=27),32,(IF(OR(F2=10,F2=18,F2=26),64,(IF(OR(F2=9,F2=17,F2=25),128,(IF(OR(F2=16,F2=24,F2=32),1,"Error")))))))))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="I2" s="33">
         <f>IF(F2&gt;=25, E2, IF(F2&gt;=17, D2, IF(F2&gt;=9,C2,"Something is wrong")))</f>
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="28">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="M2" s="29">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="N2" s="30">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="O2" s="31">
-        <v>145</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>138</v>
+        <v>4</v>
+      </c>
+      <c r="P2" s="32">
+        <v>21</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="R2" s="35">
-        <f>IF(OR(P2="/15",P2="/23",P2="/31"),2,(IF(OR(P2="/14",P2="/22",P2="/30"),4,(IF(OR(P2="/13",P2="/21",P2="/29"),8,(IF(OR(P2="/12",P2="/20",P2="/28"),16,(IF(OR(P2="/11",P2="/19",P2="/27"),32,(IF(OR(P2="/10",P2="/18",P2="/26"),64,(IF(OR(P2="/9",P2="/17",P2="/25"),128,"Something is wrong")))))))))))))</f>
-        <v>128</v>
+        <f>IF(OR(P2=15,P2=23,P2=31),2,(IF(OR(P2=14,P2=22,P2=30),4,(IF(OR(P2=13,P2=21,P2=29),8,(IF(OR(P2=12,P2=20,P2=28),16,(IF(OR(P2=11,P2=19,P2=27),32,(IF(OR(P2=10,P2=18,P2=26),64,(IF(OR(P2=9,P2=17,P2=25),128,(IF(OR(P2=16,P2=24,P2=32),1,"Error")))))))))))))))</f>
+        <v>8</v>
       </c>
       <c r="S2" s="33">
         <f>IF(P2&gt;=25, O2, IF(P2&gt;=17, N2, IF(P2&gt;=9,M2,"Something is wrong")))</f>
-        <v>145</v>
-      </c>
-      <c r="U2" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="V2" s="47" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="U2" s="43">
+        <v>32</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="28">
         <f>B2</f>
         <v>192</v>
       </c>
       <c r="C3" s="29">
-        <f t="shared" ref="C3:D3" si="0">C2</f>
+        <f>IF(H5="T",(H2*I1),IF(H4="T",C2,IF(H3="T",C2,0)))</f>
         <v>168</v>
       </c>
       <c r="D3" s="30">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>IF(H4="T",(H2*I1),IF(H3="T",D2,0))</f>
+        <v>75</v>
       </c>
       <c r="E3" s="31">
-        <f>H2*I1</f>
-        <v>192</v>
-      </c>
-      <c r="F3" s="43"/>
+        <f>IF(H3 = "T", (H2*I1), 0)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="33" t="str">
+        <f>IF(F2&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
       <c r="K3" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="28">
         <f>L2</f>
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="M3" s="29">
-        <f t="shared" ref="M3" si="1">M2</f>
-        <v>168</v>
+        <f>IF(R5="T",(R2*S1),IF(R4="T",M2,IF(R3="T",M2,0)))</f>
+        <v>4</v>
       </c>
       <c r="N3" s="30">
-        <f t="shared" ref="N3" si="2">N2</f>
-        <v>49</v>
+        <f>IF(R4="T",(R2*S1),IF(R3="T",N2,0))</f>
+        <v>160</v>
       </c>
       <c r="O3" s="31">
-        <f>R2*S1</f>
-        <v>128</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="U3" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>174</v>
+        <f>IF(R3 = "T", (R2*S1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="33" t="str">
+        <f>IF(P2&gt;=25, "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U3" s="43">
+        <v>31</v>
+      </c>
+      <c r="V3" s="44" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="28">
         <f>B2</f>
         <v>192</v>
       </c>
-      <c r="C4" s="29">
-        <f t="shared" ref="C4" si="3">C2</f>
-        <v>168</v>
-      </c>
-      <c r="D4" s="30">
-        <f t="shared" ref="D4" si="4">D2</f>
-        <v>50</v>
+      <c r="C4" s="31">
+        <f>IF(H5="T",((H2*I1)+(H2-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="D4" s="31">
+        <f>IF(H4="T",((H2*I1)+(H2-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="E4" s="31">
-        <f>E3+(H2-1)</f>
-        <v>207</v>
-      </c>
-      <c r="F4" s="43"/>
+        <f>IF(H3="T",((H2*I1)+(H2-1)),255)</f>
+        <v>31</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="33" t="str">
+        <f>IF(AND(F2&lt;25,F2&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K4" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4" s="28">
         <f>L2</f>
-        <v>192</v>
-      </c>
-      <c r="M4" s="29">
-        <f t="shared" ref="M4:N4" si="5">M2</f>
-        <v>168</v>
-      </c>
-      <c r="N4" s="30">
-        <f t="shared" si="5"/>
-        <v>49</v>
+        <v>147</v>
+      </c>
+      <c r="M4" s="31">
+        <f>IF(R5="T",((R2*S1)+(R2-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="N4" s="31">
+        <f>IF(R4="T",((R2*S1)+(R2-1)),255)</f>
+        <v>167</v>
       </c>
       <c r="O4" s="31">
-        <f>O3+(R2-1)</f>
+        <f>IF(R3="T",((R2*S1)+(R2-1)),255)</f>
         <v>255</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="U4" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="V4" s="47" t="s">
-        <v>175</v>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="33" t="str">
+        <f>IF(AND(P2&lt;25,P2&gt;=17), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="U4" s="43">
+        <v>30</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="B5" s="36" t="str">
         <f>CONCATENATE(TEXT(B2,0),".",TEXT(C2,0),".",TEXT(D2,0),".",TEXT((E3+1),0)," - ",TEXT(B2,0),".",TEXT(C2,0),".",TEXT(D2,0),".",TEXT((E4-1),0))</f>
-        <v>192.168.50.193 - 192.168.50.206</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+        <v>192.168.75.25 - 192.168.75.30</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="33" t="str">
+        <f>IF(AND(F2&lt;17,F2&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K5" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="L5" s="36" t="str">
         <f>CONCATENATE(TEXT(L2,0),".",TEXT(M2,0),".",TEXT(N2,0),".",TEXT((O3+1),0)," - ",TEXT(L2,0),".",TEXT(M2,0),".",TEXT(N2,0),".",TEXT((O4-1),0))</f>
-        <v>192.168.49.129 - 192.168.49.254</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="U5" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="V5" s="47" t="s">
-        <v>176</v>
+        <v>147.4.160.1 - 147.4.160.254</v>
+      </c>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="33" t="str">
+        <f>IF(AND(P2&lt;17,P2&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U5" s="43">
+        <v>29</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="45" t="str">
+      <c r="A6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="39" t="str">
         <f>CONCATENATE(TEXT(B2,0),".",TEXT(C2,0),".",TEXT(D2,0),".",TEXT((E3+1),0))</f>
-        <v>192.168.50.193</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+        <v>192.168.75.25</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="K6" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="L6" s="39" t="str">
         <f>CONCATENATE(TEXT(L2,0),".",TEXT(M2,0),".",TEXT(N2,0),".",TEXT((O3+1),0))</f>
-        <v>192.168.49.129</v>
-      </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-      <c r="U6" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" s="47" t="s">
-        <v>177</v>
+        <v>147.4.160.1</v>
+      </c>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="U6" s="43">
+        <v>28</v>
+      </c>
+      <c r="V6" s="44" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="B7" s="39" t="str">
         <f>VLOOKUP(F2,$U$2:$V$35,2,0)</f>
-        <v>255.255.255.240</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+        <v>255.255.255.248</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
       <c r="K7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="L7" s="39" t="str">
         <f>VLOOKUP(P2,$U$2:$V$35,2,0)</f>
-        <v>255.255.255.128</v>
-      </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="U7" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="V7" s="47" t="s">
-        <v>178</v>
+        <v>255.255.248.0</v>
+      </c>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="U7" s="43">
+        <v>27</v>
+      </c>
+      <c r="V7" s="44" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U8" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" s="47" t="s">
-        <v>179</v>
+      <c r="U8" s="43">
+        <v>26</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -22217,11 +22150,11 @@
         <v>131</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="34">
         <f>QUOTIENT(I10,H10)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>127</v>
@@ -22239,274 +22172,320 @@
         <v>131</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S9" s="34">
         <f>QUOTIENT(S10,R10)</f>
-        <v>3</v>
-      </c>
-      <c r="U9" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="V9" s="47" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="U9" s="43">
+        <v>25</v>
+      </c>
+      <c r="V9" s="44" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="22.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="28">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C10" s="29">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="D10" s="30">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E10" s="31">
-        <v>4</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>139</v>
+        <v>200</v>
+      </c>
+      <c r="F10" s="32">
+        <v>28</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>132</v>
       </c>
       <c r="H10" s="35">
-        <f>IF(OR(F10="/15",F10="/23",F10="/31"),2,(IF(OR(F10="/14",F10="/22",F10="/30"),4,(IF(OR(F10="/13",F10="/21",F10="/29"),8,(IF(OR(F10="/12",F10="/20",F10="/28"),16,(IF(OR(F10="/11",F10="/19",F10="/27"),32,(IF(OR(F10="/10",F10="/18",F10="/26"),64,(IF(OR(F10="/9",F10="/17",F10="/25"),128,"Something is wrong")))))))))))))</f>
-        <v>8</v>
+        <f>IF(OR(F10=15,F10=23,F10=31),2,(IF(OR(F10=14,F10=22,F10=30),4,(IF(OR(F10=13,F10=21,F10=29),8,(IF(OR(F10=12,F10=20,F10=28),16,(IF(OR(F10=11,F10=19,F10=27),32,(IF(OR(F10=10,F10=18,F10=26),64,(IF(OR(F10=9,F10=17,F10=25),128,(IF(OR(F10=16,F10=24,F10=32),1,"Error")))))))))))))))</f>
+        <v>16</v>
       </c>
       <c r="I10" s="33">
         <f>IF(F10&gt;=25, E10, IF(F10&gt;=17, D10, IF(F10&gt;=9,C10,"Something is wrong")))</f>
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="28">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="M10" s="29">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="N10" s="30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O10" s="31">
-        <v>250</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>140</v>
+        <v>200</v>
+      </c>
+      <c r="P10" s="32">
+        <v>28</v>
       </c>
       <c r="Q10" s="33" t="s">
         <v>132</v>
       </c>
       <c r="R10" s="35">
-        <f>IF(OR(P10="/15",P10="/23",P10="/31"),2,(IF(OR(P10="/14",P10="/22",P10="/30"),4,(IF(OR(P10="/13",P10="/21",P10="/29"),8,(IF(OR(P10="/12",P10="/20",P10="/28"),16,(IF(OR(P10="/11",P10="/19",P10="/27"),32,(IF(OR(P10="/10",P10="/18",P10="/26"),64,(IF(OR(P10="/9",P10="/17",P10="/25"),128,"Something is wrong")))))))))))))</f>
-        <v>64</v>
+        <f>IF(OR(P10=15,P10=23,P10=31),2,(IF(OR(P10=14,P10=22,P10=30),4,(IF(OR(P10=13,P10=21,P10=29),8,(IF(OR(P10=12,P10=20,P10=28),16,(IF(OR(P10=11,P10=19,P10=27),32,(IF(OR(P10=10,P10=18,P10=26),64,(IF(OR(P10=9,P10=17,P10=25),128,(IF(OR(P10=16,P10=24,P10=32),1,"Error")))))))))))))))</f>
+        <v>16</v>
       </c>
       <c r="S10" s="33">
         <f>IF(P10&gt;=25, O10, IF(P10&gt;=17, N10, IF(P10&gt;=9,M10,"Something is wrong")))</f>
-        <v>250</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="V10" s="47" t="s">
-        <v>181</v>
+        <v>200</v>
+      </c>
+      <c r="U10" s="43">
+        <v>24</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="28">
         <f>B10</f>
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C11" s="29">
-        <f t="shared" ref="C11" si="6">C10</f>
-        <v>4</v>
+        <f>IF(H13="T",(H10*I9),IF(H12="T",C10,IF(H11="T",C10,0)))</f>
+        <v>168</v>
       </c>
       <c r="D11" s="30">
-        <f t="shared" ref="D11" si="7">D10</f>
-        <v>160</v>
+        <f>IF(H12="T",(H10*I9),IF(H11="T",D10,0))</f>
+        <v>50</v>
       </c>
       <c r="E11" s="31">
-        <f>H10*I9</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="43"/>
+        <f>IF(H11 = "T", (H10*I9), 0)</f>
+        <v>192</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="33" t="str">
+        <f>IF(F10&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
       <c r="K11" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L11" s="28">
         <f>L10</f>
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="M11" s="29">
-        <f t="shared" ref="M11" si="8">M10</f>
-        <v>12</v>
+        <f>IF(R13="T",(R10*S9),IF(R12="T",M10,IF(R11="T",M10,0)))</f>
+        <v>168</v>
       </c>
       <c r="N11" s="30">
-        <f t="shared" ref="N11" si="9">N10</f>
-        <v>40</v>
+        <f>IF(R12="T",(R10*S9),IF(R11="T",N10,0))</f>
+        <v>50</v>
       </c>
       <c r="O11" s="31">
-        <f>R10*S9</f>
+        <f>IF(R11 = "T", (R10*S9), 0)</f>
         <v>192</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="U11" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="V11" s="47" t="s">
-        <v>182</v>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11" s="33" t="str">
+        <f>IF(P10&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="U11" s="43">
+        <v>23</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="28">
         <f>B10</f>
-        <v>147</v>
-      </c>
-      <c r="C12" s="29">
-        <f t="shared" ref="C12:E12" si="10">C10</f>
-        <v>4</v>
-      </c>
-      <c r="D12" s="30">
-        <f t="shared" si="10"/>
-        <v>160</v>
+        <v>192</v>
+      </c>
+      <c r="C12" s="31">
+        <f>IF(H13="T",((H10*I9)+(H10-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="D12" s="31">
+        <f>IF(H12="T",((H10*I9)+(H10-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="E12" s="31">
-        <f>E11+(H10-1)</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="43"/>
+        <f>IF(H11="T",((H10*I9)+(H10-1)),255)</f>
+        <v>207</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="33" t="str">
+        <f>IF(AND(F10&lt;25,F10&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K12" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="28">
         <f>L10</f>
-        <v>147</v>
-      </c>
-      <c r="M12" s="29">
-        <f t="shared" ref="M12:O12" si="11">M10</f>
-        <v>12</v>
-      </c>
-      <c r="N12" s="30">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <v>192</v>
+      </c>
+      <c r="M12" s="31">
+        <f>IF(R13="T",((R10*S9)+(R10-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="N12" s="31">
+        <f>IF(R12="T",((R10*S9)+(R10-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="O12" s="31">
-        <f>O11+(R10-1)</f>
-        <v>255</v>
-      </c>
-      <c r="P12" s="43"/>
-      <c r="U12" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="V12" s="47" t="s">
-        <v>183</v>
+        <f>IF(R11="T",((R10*S9)+(R10-1)),255)</f>
+        <v>207</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" s="33" t="str">
+        <f>IF(AND(P10&lt;25,P10&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U12" s="43">
+        <v>22</v>
+      </c>
+      <c r="V12" s="44" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="B13" s="36" t="str">
         <f>CONCATENATE(TEXT(B10,0),".",TEXT(C10,0),".",TEXT(D10,0),".",TEXT((E11+1),0)," - ",TEXT(B10,0),".",TEXT(C10,0),".",TEXT(D10,0),".",TEXT((E12-1),0))</f>
-        <v>147.4.160.1 - 147.4.160.6</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+        <v>192.168.50.193 - 192.168.50.206</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="33" t="str">
+        <f>IF(AND(F10&lt;17,F10&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K13" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="L13" s="36" t="str">
         <f>CONCATENATE(TEXT(L10,0),".",TEXT(M10,0),".",TEXT(N10,0),".",TEXT((O11+1),0)," - ",TEXT(L10,0),".",TEXT(M10,0),".",TEXT(N10,0),".",TEXT((O12-1),0))</f>
-        <v>147.12.40.193 - 147.12.40.254</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="39"/>
-      <c r="U13" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="V13" s="47" t="s">
-        <v>184</v>
+        <v>192.168.50.193 - 192.168.50.206</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="R13" s="33" t="str">
+        <f>IF(AND(P10&lt;17,P10&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U13" s="43">
+        <v>21</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="B14" s="39" t="str">
         <f>CONCATENATE(TEXT(B10,0),".",TEXT(C10,0),".",TEXT(D10,0),".",TEXT((E11+1),0))</f>
-        <v>147.4.160.1</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
+        <v>192.168.50.193</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="K14" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="L14" s="39" t="str">
         <f>CONCATENATE(TEXT(L10,0),".",TEXT(M10,0),".",TEXT(N10,0),".",TEXT((O11+1),0))</f>
-        <v>147.12.40.193</v>
-      </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="42"/>
-      <c r="U14" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="V14" s="47" t="s">
-        <v>185</v>
+        <v>192.168.50.193</v>
+      </c>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="U14" s="43">
+        <v>20</v>
+      </c>
+      <c r="V14" s="44" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="B15" s="39" t="str">
         <f>VLOOKUP(F10,$U$2:$V$35,2,0)</f>
-        <v>255.255.248.0</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+        <v>255.255.255.240</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="K15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="L15" s="39" t="str">
         <f>VLOOKUP(P10,$U$2:$V$35,2,0)</f>
-        <v>255.255.192.0</v>
-      </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
-      <c r="U15" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="V15" s="47" t="s">
-        <v>186</v>
+        <v>255.255.255.240</v>
+      </c>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="U15" s="43">
+        <v>19</v>
+      </c>
+      <c r="V15" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
+      <c r="U16" s="43">
+        <v>18</v>
+      </c>
+      <c r="V16" s="44" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="1:22" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
@@ -22525,11 +22504,11 @@
         <v>131</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="34">
         <f>QUOTIENT(I18,H18)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>127</v>
@@ -22547,274 +22526,320 @@
         <v>131</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S17" s="34">
         <f>QUOTIENT(S18,R18)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="V17" s="47" t="s">
-        <v>187</v>
+        <v>12</v>
+      </c>
+      <c r="U17" s="43">
+        <v>17</v>
+      </c>
+      <c r="V17" s="44" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="22.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="28">
+        <v>192</v>
+      </c>
+      <c r="C18" s="29">
+        <v>168</v>
+      </c>
+      <c r="D18" s="30">
+        <v>50</v>
+      </c>
+      <c r="E18" s="31">
         <v>200</v>
       </c>
-      <c r="C18" s="29">
-        <v>48</v>
-      </c>
-      <c r="D18" s="30">
-        <v>107</v>
-      </c>
-      <c r="E18" s="31">
-        <v>50</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>143</v>
+      <c r="F18" s="32">
+        <v>28</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>132</v>
       </c>
       <c r="H18" s="35">
-        <f>IF(OR(F18="/15",F18="/23",F18="/31"),2,(IF(OR(F18="/14",F18="/22",F18="/30"),4,(IF(OR(F18="/13",F18="/21",F18="/29"),8,(IF(OR(F18="/12",F18="/20",F18="/28"),16,(IF(OR(F18="/11",F18="/19",F18="/27"),32,(IF(OR(F18="/10",F18="/18",F18="/26"),64,(IF(OR(F18="/9",F18="/17",F18="/25"),128,"Something is wrong")))))))))))))</f>
-        <v>32</v>
+        <f>IF(OR(F18=15,F18=23,F18=31),2,(IF(OR(F18=14,F18=22,F18=30),4,(IF(OR(F18=13,F18=21,F18=29),8,(IF(OR(F18=12,F18=20,F18=28),16,(IF(OR(F18=11,F18=19,F18=27),32,(IF(OR(F18=10,F18=18,F18=26),64,(IF(OR(F18=9,F18=17,F18=25),128,(IF(OR(F18=16,F18=24,F18=32),1,"Error")))))))))))))))</f>
+        <v>16</v>
       </c>
       <c r="I18" s="33">
         <f>IF(F18&gt;=25, E18, IF(F18&gt;=17, D18, IF(F18&gt;=9,C18,"Something is wrong")))</f>
+        <v>200</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="28">
+        <v>192</v>
+      </c>
+      <c r="M18" s="29">
+        <v>168</v>
+      </c>
+      <c r="N18" s="30">
         <v>50</v>
       </c>
-      <c r="K18" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" s="28">
-        <v>0</v>
-      </c>
-      <c r="M18" s="29">
-        <v>0</v>
-      </c>
-      <c r="N18" s="30">
-        <v>0</v>
-      </c>
       <c r="O18" s="31">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>133</v>
+        <v>200</v>
+      </c>
+      <c r="P18" s="32">
+        <v>28</v>
       </c>
       <c r="Q18" s="33" t="s">
         <v>132</v>
       </c>
       <c r="R18" s="35">
-        <f>IF(OR(P18="/15",P18="/23",P18="/31"),2,(IF(OR(P18="/14",P18="/22",P18="/30"),4,(IF(OR(P18="/13",P18="/21",P18="/29"),8,(IF(OR(P18="/12",P18="/20",P18="/28"),16,(IF(OR(P18="/11",P18="/19",P18="/27"),32,(IF(OR(P18="/10",P18="/18",P18="/26"),64,(IF(OR(P18="/9",P18="/17",P18="/25"),128,"Something is wrong")))))))))))))</f>
+        <f>IF(OR(P18=15,P18=23,P18=31),2,(IF(OR(P18=14,P18=22,P18=30),4,(IF(OR(P18=13,P18=21,P18=29),8,(IF(OR(P18=12,P18=20,P18=28),16,(IF(OR(P18=11,P18=19,P18=27),32,(IF(OR(P18=10,P18=18,P18=26),64,(IF(OR(P18=9,P18=17,P18=25),128,(IF(OR(P18=16,P18=24,P18=32),1,"Error")))))))))))))))</f>
         <v>16</v>
       </c>
       <c r="S18" s="33">
         <f>IF(P18&gt;=25, O18, IF(P18&gt;=17, N18, IF(P18&gt;=9,M18,"Something is wrong")))</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="V18" s="47" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="U18" s="43">
+        <v>16</v>
+      </c>
+      <c r="V18" s="44" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="28">
         <f>B18</f>
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C19" s="29">
-        <f t="shared" ref="C19" si="12">C18</f>
-        <v>48</v>
+        <f>IF(H21="T",(H18*I17),IF(H20="T",C18,IF(H19="T",C18,0)))</f>
+        <v>168</v>
       </c>
       <c r="D19" s="30">
-        <f t="shared" ref="D19" si="13">D18</f>
-        <v>107</v>
+        <f>IF(H20="T",(H18*I17),IF(H19="T",D18,0))</f>
+        <v>50</v>
       </c>
       <c r="E19" s="31">
-        <f>H18*I17</f>
-        <v>32</v>
-      </c>
-      <c r="F19" s="43"/>
+        <f>IF(H19 = "T", (H18*I17), 0)</f>
+        <v>192</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="33" t="str">
+        <f>IF(F18&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
       <c r="K19" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L19" s="28">
         <f>L18</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="M19" s="29">
-        <f t="shared" ref="M19" si="14">M18</f>
-        <v>0</v>
+        <f>IF(R21="T",(R18*S17),IF(R20="T",M18,IF(R19="T",M18,0)))</f>
+        <v>168</v>
       </c>
       <c r="N19" s="30">
-        <f t="shared" ref="N19" si="15">N18</f>
-        <v>0</v>
+        <f>IF(R20="T",(R18*S17),IF(R19="T",N18,0))</f>
+        <v>50</v>
       </c>
       <c r="O19" s="31">
-        <f>R18*S17</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="43"/>
-      <c r="U19" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="V19" s="47" t="s">
-        <v>189</v>
+        <f>IF(R19 = "T", (R18*S17), 0)</f>
+        <v>192</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" s="33" t="str">
+        <f>IF(P18&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="U19" s="43">
+        <v>15</v>
+      </c>
+      <c r="V19" s="44" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="28">
         <f>B18</f>
-        <v>200</v>
-      </c>
-      <c r="C20" s="29">
-        <f t="shared" ref="C20:E20" si="16">C18</f>
-        <v>48</v>
-      </c>
-      <c r="D20" s="30">
-        <f t="shared" si="16"/>
-        <v>107</v>
+        <v>192</v>
+      </c>
+      <c r="C20" s="31">
+        <f>IF(H21="T",((H18*I17)+(H18-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="D20" s="31">
+        <f>IF(H20="T",((H18*I17)+(H18-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="E20" s="31">
-        <f>E19+(H18-1)</f>
-        <v>63</v>
-      </c>
-      <c r="F20" s="43"/>
+        <f>IF(H19="T",((H18*I17)+(H18-1)),255)</f>
+        <v>207</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="33" t="str">
+        <f>IF(AND(F18&lt;25,F18&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K20" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L20" s="28">
         <f>L18</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="29">
-        <f t="shared" ref="M20:O20" si="17">M18</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="30">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="M20" s="31">
+        <f>IF(R21="T",((R18*S17)+(R18-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="N20" s="31">
+        <f>IF(R20="T",((R18*S17)+(R18-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="O20" s="31">
-        <f>O19+(R18-1)</f>
-        <v>15</v>
-      </c>
-      <c r="P20" s="43"/>
-      <c r="U20" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="V20" s="47" t="s">
-        <v>190</v>
+        <f>IF(R19="T",((R18*S17)+(R18-1)),255)</f>
+        <v>207</v>
+      </c>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="33" t="str">
+        <f>IF(AND(P18&lt;25,P18&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U20" s="43">
+        <v>14</v>
+      </c>
+      <c r="V20" s="44" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="B21" s="36" t="str">
         <f>CONCATENATE(TEXT(B18,0),".",TEXT(C18,0),".",TEXT(D18,0),".",TEXT((E19+1),0)," - ",TEXT(B18,0),".",TEXT(C18,0),".",TEXT(D18,0),".",TEXT((E20-1),0))</f>
-        <v>200.48.107.33 - 200.48.107.62</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+        <v>192.168.50.193 - 192.168.50.206</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="33" t="str">
+        <f>IF(AND(F18&lt;17,F18&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K21" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="L21" s="36" t="str">
         <f>CONCATENATE(TEXT(L18,0),".",TEXT(M18,0),".",TEXT(N18,0),".",TEXT((O19+1),0)," - ",TEXT(L18,0),".",TEXT(M18,0),".",TEXT(N18,0),".",TEXT((O20-1),0))</f>
-        <v>0.0.0.1 - 0.0.0.14</v>
-      </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="U21" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="V21" s="47" t="s">
-        <v>191</v>
+        <v>192.168.50.193 - 192.168.50.206</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="R21" s="33" t="str">
+        <f>IF(AND(P18&lt;17,P18&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U21" s="43">
+        <v>13</v>
+      </c>
+      <c r="V21" s="44" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="B22" s="39" t="str">
         <f>CONCATENATE(TEXT(B18,0),".",TEXT(C18,0),".",TEXT(D18,0),".",TEXT((E19+1),0))</f>
-        <v>200.48.107.33</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
+        <v>192.168.50.193</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="K22" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="L22" s="39" t="str">
         <f>CONCATENATE(TEXT(L18,0),".",TEXT(M18,0),".",TEXT(N18,0),".",TEXT((O19+1),0))</f>
-        <v>0.0.0.1</v>
-      </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="U22" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="V22" s="47" t="s">
-        <v>192</v>
+        <v>192.168.50.193</v>
+      </c>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="U22" s="43">
+        <v>12</v>
+      </c>
+      <c r="V22" s="44" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="B23" s="39" t="str">
         <f>VLOOKUP(F18,$U$2:$V$35,2,0)</f>
-        <v>255.255.255.224</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+        <v>255.255.255.240</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="K23" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="L23" s="39" t="str">
         <f>VLOOKUP(P18,$U$2:$V$35,2,0)</f>
         <v>255.255.255.240</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
-      <c r="U23" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="V23" s="47" t="s">
-        <v>193</v>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="41"/>
+      <c r="U23" s="43">
+        <v>11</v>
+      </c>
+      <c r="V23" s="44" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U24" s="46"/>
-      <c r="V24" s="47"/>
+      <c r="U24" s="43">
+        <v>10</v>
+      </c>
+      <c r="V24" s="44" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="27" t="s">
@@ -22833,11 +22858,11 @@
         <v>131</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" s="34">
         <f>QUOTIENT(I26,H26)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K25" s="27" t="s">
         <v>127</v>
@@ -22855,302 +22880,336 @@
         <v>131</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S25" s="34">
         <f>QUOTIENT(S26,R26)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="V25" s="47" t="s">
-        <v>194</v>
+        <v>12</v>
+      </c>
+      <c r="U25" s="43">
+        <v>9</v>
+      </c>
+      <c r="V25" s="44" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="22.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="28">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C26" s="29">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D26" s="30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" s="31">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>133</v>
+        <v>200</v>
+      </c>
+      <c r="F26" s="32">
+        <v>28</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>132</v>
       </c>
       <c r="H26" s="35">
-        <f>IF(OR(F26="/15",F26="/23",F26="/31"),2,(IF(OR(F26="/14",F26="/22",F26="/30"),4,(IF(OR(F26="/13",F26="/21",F26="/29"),8,(IF(OR(F26="/12",F26="/20",F26="/28"),16,(IF(OR(F26="/11",F26="/19",F26="/27"),32,(IF(OR(F26="/10",F26="/18",F26="/26"),64,(IF(OR(F26="/9",F26="/17",F26="/25"),128,"Something is wrong")))))))))))))</f>
+        <f>IF(OR(F26=15,F26=23,F26=31),2,(IF(OR(F26=14,F26=22,F26=30),4,(IF(OR(F26=13,F26=21,F26=29),8,(IF(OR(F26=12,F26=20,F26=28),16,(IF(OR(F26=11,F26=19,F26=27),32,(IF(OR(F26=10,F26=18,F26=26),64,(IF(OR(F26=9,F26=17,F26=25),128,(IF(OR(F26=16,F26=24,F26=32),1,"Error")))))))))))))))</f>
         <v>16</v>
       </c>
       <c r="I26" s="33">
         <f>IF(F26&gt;=25, E26, IF(F26&gt;=17, D26, IF(F26&gt;=9,C26,"Something is wrong")))</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" s="28">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="M26" s="29">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N26" s="30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O26" s="31">
-        <v>0</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>133</v>
+        <v>200</v>
+      </c>
+      <c r="P26" s="32">
+        <v>28</v>
       </c>
       <c r="Q26" s="33" t="s">
         <v>132</v>
       </c>
       <c r="R26" s="35">
-        <f>IF(OR(P26="/15",P26="/23",P26="/31"),2,(IF(OR(P26="/14",P26="/22",P26="/30"),4,(IF(OR(P26="/13",P26="/21",P26="/29"),8,(IF(OR(P26="/12",P26="/20",P26="/28"),16,(IF(OR(P26="/11",P26="/19",P26="/27"),32,(IF(OR(P26="/10",P26="/18",P26="/26"),64,(IF(OR(P26="/9",P26="/17",P26="/25"),128,"Something is wrong")))))))))))))</f>
+        <f>IF(OR(P26=15,P26=23,P26=31),2,(IF(OR(P26=14,P26=22,P26=30),4,(IF(OR(P26=13,P26=21,P26=29),8,(IF(OR(P26=12,P26=20,P26=28),16,(IF(OR(P26=11,P26=19,P26=27),32,(IF(OR(P26=10,P26=18,P26=26),64,(IF(OR(P26=9,P26=17,P26=25),128,(IF(OR(P26=16,P26=24,P26=32),1,"Error")))))))))))))))</f>
         <v>16</v>
       </c>
       <c r="S26" s="33">
         <f>IF(P26&gt;=25, O26, IF(P26&gt;=17, N26, IF(P26&gt;=9,M26,"Something is wrong")))</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="V26" s="47" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="U26" s="43">
+        <v>8</v>
+      </c>
+      <c r="V26" s="44" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="28">
         <f>B26</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C27" s="29">
-        <f t="shared" ref="C27" si="18">C26</f>
-        <v>0</v>
+        <f>IF(H29="T",(H26*I25),IF(H28="T",C26,IF(H27="T",C26,0)))</f>
+        <v>168</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" ref="D27" si="19">D26</f>
-        <v>0</v>
+        <f>IF(H28="T",(H26*I25),IF(H27="T",D26,0))</f>
+        <v>50</v>
       </c>
       <c r="E27" s="31">
-        <f>H26*I25</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="43"/>
+        <f>IF(H27 = "T", (H26*I25), 0)</f>
+        <v>192</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="33" t="str">
+        <f>IF(F26&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
       <c r="K27" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" s="28">
         <f>L26</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="M27" s="29">
-        <f t="shared" ref="M27" si="20">M26</f>
-        <v>0</v>
+        <f>IF(R29="T",(R26*S25),IF(R28="T",M26,IF(R27="T",M26,0)))</f>
+        <v>168</v>
       </c>
       <c r="N27" s="30">
-        <f t="shared" ref="N27" si="21">N26</f>
-        <v>0</v>
+        <f>IF(R28="T",(R26*S25),IF(R27="T",N26,0))</f>
+        <v>50</v>
       </c>
       <c r="O27" s="31">
-        <f>R26*S25</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="43"/>
-      <c r="U27" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="V27" s="47" t="s">
-        <v>196</v>
+        <f>IF(R27 = "T", (R26*S25), 0)</f>
+        <v>192</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" s="33" t="str">
+        <f>IF(P26&gt;=25, "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="U27" s="43">
+        <v>7</v>
+      </c>
+      <c r="V27" s="44" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="28">
         <f>B26</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" ref="C28:E28" si="22">C26</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="30">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="C28" s="31">
+        <f>IF(H29="T",((H26*I25)+(H26-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="D28" s="31">
+        <f>IF(H28="T",((H26*I25)+(H26-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="E28" s="31">
-        <f>E27+(H26-1)</f>
-        <v>15</v>
-      </c>
-      <c r="F28" s="43"/>
+        <f>IF(H27="T",((H26*I25)+(H26-1)),255)</f>
+        <v>207</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="33" t="str">
+        <f>IF(AND(F26&lt;25,F26&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K28" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28" s="28">
         <f>L26</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="29">
-        <f t="shared" ref="M28:O28" si="23">M26</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="M28" s="31">
+        <f>IF(R29="T",((R26*S25)+(R26-1)),255)</f>
+        <v>255</v>
+      </c>
+      <c r="N28" s="31">
+        <f>IF(R28="T",((R26*S25)+(R26-1)),255)</f>
+        <v>255</v>
       </c>
       <c r="O28" s="31">
-        <f>O27+(R26-1)</f>
-        <v>15</v>
-      </c>
-      <c r="P28" s="43"/>
-      <c r="U28" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="V28" s="47" t="s">
-        <v>197</v>
+        <f>IF(R27="T",((R26*S25)+(R26-1)),255)</f>
+        <v>207</v>
+      </c>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" s="33" t="str">
+        <f>IF(AND(P26&lt;25,P26&gt;=17), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U28" s="43">
+        <v>6</v>
+      </c>
+      <c r="V28" s="44" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="B29" s="36" t="str">
         <f>CONCATENATE(TEXT(B26,0),".",TEXT(C26,0),".",TEXT(D26,0),".",TEXT((E27+1),0)," - ",TEXT(B26,0),".",TEXT(C26,0),".",TEXT(D26,0),".",TEXT((E28-1),0))</f>
-        <v>0.0.0.1 - 0.0.0.14</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+        <v>192.168.50.193 - 192.168.50.206</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="33" t="str">
+        <f>IF(AND(F26&lt;17,F26&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
       <c r="K29" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="37" t="str">
+        <v>137</v>
+      </c>
+      <c r="L29" s="36" t="str">
         <f>CONCATENATE(TEXT(L26,0),".",TEXT(M26,0),".",TEXT(N26,0),".",TEXT((O27+1),0)," - ",TEXT(L26,0),".",TEXT(M26,0),".",TEXT(N26,0),".",TEXT((O28-1),0))</f>
-        <v>0.0.0.1 - 0.0.0.14</v>
-      </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
-      <c r="U29" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="V29" s="47" t="s">
-        <v>198</v>
+        <v>192.168.50.193 - 192.168.50.206</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="R29" s="33" t="str">
+        <f>IF(AND(P26&lt;17,P26&gt;=9), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="U29" s="43">
+        <v>5</v>
+      </c>
+      <c r="V29" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="B30" s="39" t="str">
         <f>CONCATENATE(TEXT(B26,0),".",TEXT(C26,0),".",TEXT(D26,0),".",TEXT((E27+1),0))</f>
-        <v>0.0.0.1</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
+        <v>192.168.50.193</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
       <c r="K30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L30" s="40" t="str">
+        <v>138</v>
+      </c>
+      <c r="L30" s="39" t="str">
         <f>CONCATENATE(TEXT(L26,0),".",TEXT(M26,0),".",TEXT(N26,0),".",TEXT((O27+1),0))</f>
-        <v>0.0.0.1</v>
-      </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
-      <c r="U30" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="V30" s="47" t="s">
-        <v>199</v>
+        <v>192.168.50.193</v>
+      </c>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="U30" s="43">
+        <v>4</v>
+      </c>
+      <c r="V30" s="44" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="B31" s="39" t="str">
         <f>VLOOKUP(F26,$U$2:$V$35,2,0)</f>
         <v>255.255.255.240</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="K31" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="L31" s="40" t="str">
+        <v>139</v>
+      </c>
+      <c r="L31" s="39" t="str">
         <f>VLOOKUP(P26,$U$2:$V$35,2,0)</f>
         <v>255.255.255.240</v>
       </c>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="42"/>
-      <c r="U31" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="V31" s="47" t="s">
-        <v>200</v>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="U31" s="43">
+        <v>3</v>
+      </c>
+      <c r="V31" s="44" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U32" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="V32" s="47" t="s">
-        <v>201</v>
+      <c r="U32" s="43">
+        <v>2</v>
+      </c>
+      <c r="V32" s="44" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="21:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U33" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="V33" s="47" t="s">
-        <v>202</v>
+      <c r="U33" s="43">
+        <v>1</v>
+      </c>
+      <c r="V33" s="44" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="21:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U34" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="V34" s="47" t="s">
-        <v>203</v>
-      </c>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
     </row>
     <row r="35" spans="21:22" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="U35" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="V35" s="47" t="s">
-        <v>204</v>
-      </c>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
